--- a/similarities/split_global/harmonic_similarity_timestamps_160.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:07.840000'), ('0:00:27.940000', '0:00:33.160000')]</t>
+          <t>('0:00:10.780000', '0:00:17.680000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000'), ('0:00:37.200000', '0:00:39.900000')]</t>
+          <t>('0:00:13.500000', '0:00:25.260000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=27.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=37.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+          <t>('0:00:00.421247', '0:00:04.824512')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.279000', '0:00:16.531000')]</t>
+          <t>('0:01:10.519024', '0:01:22.732721')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:34.640000', '0:00:44.560000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:11.072593')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['C:maj', 'F:7/D#', 'A#:maj/D']]</t>
+          <t>['F#:maj', 'B:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab'], ['Bb', 'Eb:7', 'Ab']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:21.680000', '0:00:32.360000'), ('0:01:14.120000', '0:01:19.040000')]</t>
+          <t>('0:00:10.960000', '0:00:12.940000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.604557', '0:00:16.370090'), ('0:00:23.428956', '0:00:30.731632')]</t>
+          <t>('0:00:18.013446', '0:00:21.856349')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=74.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=7.604557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=18.013446</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['Eb:maj', 'Db:maj', 'Ab:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min']]</t>
+          <t>['G', 'F', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:18.920000', '0:00:24.120000')]</t>
+          <t>('0:00:45.887000', '0:00:51.649000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.990317', '0:01:03.680748')]</t>
+          <t>('0:00:01.323560', '0:00:04.075124')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=18.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=58.990317']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=1.32356</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
+          <t>('0:00:10.380000', '0:00:22.020000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
+          <t>('0:00:02.660000', '0:00:10.620000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=18.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000'), ('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:10.220000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:00:00.220000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=10.22</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['F#:min7', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E:min7', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:40.080000', '0:00:45.580000')]</t>
+          <t>('0:00:05.708194', '0:00:10.061936')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:38.620000', '0:01:52.500000')]</t>
+          <t>('0:00:32.032000', '0:00:39.805000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=40.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=32.032</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C', 'G:7', 'C', 'D:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['C/G', 'G:7', 'C', 'D:7/C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:21.170000', '0:00:27.940000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:04:03.440000', '0:04:11.760000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'C', 'A:min'], ['F', 'C', 'F']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'C#/F', 'A#:min/F'], ['F#/A#', 'C#', 'F#']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:12.754489', '0:01:20.463514'), ('0:00:18.071496', '0:00:23.725555')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:07.100000', '0:01:10.760000'), ('0:00:54.480000', '0:00:59.100000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=72.754489', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=18.071496']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=67.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=54.48']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:00:20.920000', '0:00:26.040000')]</t>
+          <t>('0:04:12.620000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:18.920000', '0:00:21.940000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=252.62</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.92</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'F']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:40.030000', '0:00:43.842000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.668231')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=40.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:41.740000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:00:08.180000', '0:00:13.260000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000'), ('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
